--- a/testingauto/data.xlsx
+++ b/testingauto/data.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Datos" r:id="rId3" sheetId="1"/>
     <sheet name="Result" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>userName</t>
   </si>
@@ -39,28 +39,43 @@
     <t>mercur</t>
   </si>
   <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>correctLogin</t>
+  </si>
+  <si>
+    <t>28-03-2019</t>
+  </si>
+  <si>
+    <t>13:47:12</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>TC Name</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>multipleLogin</t>
   </si>
   <si>
-    <t>d/m/Y</t>
-  </si>
-  <si>
-    <t>H:M:S</t>
+    <t>13:48:25</t>
   </si>
 </sst>
 </file>
@@ -162,44 +177,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.3125" customWidth="true"/>
-    <col min="2" max="2" width="8.3125" customWidth="true"/>
-    <col min="3" max="3" width="8.3125" customWidth="true"/>
-    <col min="4" max="4" width="8.3125" customWidth="true"/>
+    <col min="1" max="1" width="13.9453125" customWidth="true" hidden="false"/>
+    <col min="2" max="2" width="10.95703125" customWidth="true" hidden="false"/>
+    <col min="3" max="3" width="8.96484375" customWidth="true" hidden="false"/>
+    <col min="4" max="4" width="7.96875" customWidth="true" hidden="false"/>
+    <col min="5" max="5" width="7.96875" customWidth="true" hidden="false"/>
+    <col min="6" max="6" width="7.96875" customWidth="true" hidden="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testingauto/data.xlsx
+++ b/testingauto/data.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" r:id="rId3" sheetId="1"/>
+    <sheet name="Hoja1" r:id="rId3" sheetId="1"/>
     <sheet name="Result" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>userName</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Hour</t>
   </si>
   <si>
     <t>Success</t>
@@ -54,28 +54,76 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Cause</t>
-  </si>
-  <si>
     <t>correctLogin</t>
   </si>
   <si>
-    <t>28-03-2019</t>
-  </si>
-  <si>
-    <t>13:47:12</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>29-03-2019</t>
+  </si>
+  <si>
+    <t>11:33:10</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"partial link text","selector":"SIGN-ON"}
+  (Session info: chrome=73.0.3683.86)
+  (Driver info: chromedriver=2.44.609538 (b655c5a60b0b544917107a59d4153d4bf78e1b90),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAB3', ip: '10.236.115.139', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_201'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.44.609538 (b655c5a60b0b54..., userDataDir: C:\Users\Julia\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, goog:chromeOptions: {debuggerAddress: localhost:61249}, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: ignore, unhandledPromptBehavior: ignore, version: 73.0.3683.86, webStorageEnabled: true}
+Session ID: 35f8cf803204a1afa59ac11284c40723
+*** Element info: {Using=partial link text, value=SIGN-ON}</t>
+  </si>
+  <si>
+    <t>multipleLogin</t>
+  </si>
+  <si>
+    <t>11:38:44</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=73.0.3683.86)
+  (Driver info: chromedriver=2.44.609538 (b655c5a60b0b544917107a59d4153d4bf78e1b90),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAB3', ip: '10.236.115.139', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_201'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.44.609538 (b655c5a60b0b54..., userDataDir: C:\Users\Julia\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, goog:chromeOptions: {debuggerAddress: localhost:61288}, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: ignore, unhandledPromptBehavior: ignore, version: 73.0.3683.86, webStorageEnabled: true}
+Session ID: c44892d6a4caff5114344db6652cb688</t>
+  </si>
+  <si>
+    <t>11:49:22</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=73.0.3683.86)
+  (Driver info: chromedriver=2.44.609538 (b655c5a60b0b544917107a59d4153d4bf78e1b90),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAB3', ip: '10.236.115.139', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_201'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.44.609538 (b655c5a60b0b54..., userDataDir: C:\Users\Julia\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, goog:chromeOptions: {debuggerAddress: localhost:61924}, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: ignore, unhandledPromptBehavior: ignore, version: 73.0.3683.86, webStorageEnabled: true}
+Session ID: 616f12ba36b67a0135d9466c0798da0e</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>multipleLogin</t>
-  </si>
-  <si>
-    <t>13:48:25</t>
+    <t>11:50:49</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"name","selector":"login"}
+  (Session info: chrome=73.0.3683.86)
+  (Driver info: chromedriver=2.44.609538 (b655c5a60b0b544917107a59d4153d4bf78e1b90),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'LAB3', ip: '10.236.115.139', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_201'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.44.609538 (b655c5a60b0b54..., userDataDir: C:\Users\Julia\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, goog:chromeOptions: {debuggerAddress: localhost:62325}, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: ignore, unhandledPromptBehavior: ignore, version: 73.0.3683.86, webStorageEnabled: true}
+Session ID: 30a4444f8266fb9558159328c947f4bc
+*** Element info: {Using=name, value=login}</t>
   </si>
 </sst>
 </file>
@@ -177,7 +225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -187,8 +235,7 @@
     <col min="2" max="2" width="10.95703125" customWidth="true" hidden="false"/>
     <col min="3" max="3" width="8.96484375" customWidth="true" hidden="false"/>
     <col min="4" max="4" width="7.96875" customWidth="true" hidden="false"/>
-    <col min="5" max="5" width="7.96875" customWidth="true" hidden="false"/>
-    <col min="6" max="6" width="7.96875" customWidth="true" hidden="false"/>
+    <col min="5" max="5" width="254.00390625" customWidth="true" hidden="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -207,48 +254,73 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
